--- a/AfDD_2025_Annex_Table_Tab32.xlsx
+++ b/AfDD_2025_Annex_Table_Tab32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77FAB38-7B4F-4EBE-84AF-459B94F7EED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{420E176A-8557-4C56-A00C-0AD95B3B1539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{7C640C70-81C8-48F1-9C41-FDC7924796CF}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0BEF564E-EC10-49CE-9B25-76A926940DC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="172">
   <si>
     <t>Table 32: Informal economies and informal employment</t>
   </si>
@@ -78,13 +78,13 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>BWA</t>
   </si>
   <si>
     <t>Botswana</t>
-  </si>
-  <si>
-    <t>Update will be coming soon</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -562,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,13 +631,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -937,7 +930,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,8 +975,11 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -997,12 +993,6 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1015,19 +1005,19 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,25 +1071,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,13 +1104,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,28 +1137,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1452,11 +1442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E140E2-3188-4825-BECF-96968B7D7412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F13E8B6-640F-434B-84F2-482932B12565}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1464,11 +1454,11 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.42578125" style="81" customWidth="1"/>
+    <col min="3" max="10" width="14.42578125" style="80" customWidth="1"/>
     <col min="11" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1481,7 +1471,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1513,787 +1503,1533 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <v>92.188999999999993</v>
+      </c>
+      <c r="D3" s="12">
+        <v>95.426000000000002</v>
+      </c>
+      <c r="E3" s="13">
+        <v>88.822000000000003</v>
+      </c>
+      <c r="F3" s="11">
+        <v>40.386310999999999</v>
+      </c>
+      <c r="G3" s="13">
+        <v>46.522582999999997</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="15">
+        <v>76.137</v>
+      </c>
+      <c r="D4" s="16">
+        <v>73.233000000000004</v>
+      </c>
+      <c r="E4" s="17">
+        <v>78.685000000000002</v>
+      </c>
+      <c r="F4" s="15">
+        <v>25.670152999999999</v>
+      </c>
+      <c r="G4" s="17">
+        <v>31.014956000000002</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15">
+        <v>53.296999999999997</v>
+      </c>
+      <c r="D5" s="19">
+        <v>56.356000000000002</v>
+      </c>
+      <c r="E5" s="20">
+        <v>50.305999999999997</v>
+      </c>
+      <c r="F5" s="15">
+        <v>39.655121000000001</v>
+      </c>
+      <c r="G5" s="20">
+        <v>38.320869000000002</v>
+      </c>
+      <c r="H5" s="15">
+        <v>73.5</v>
+      </c>
+      <c r="I5" s="19">
+        <v>93.7</v>
+      </c>
+      <c r="J5" s="20">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="15">
+        <v>80.853999999999999</v>
+      </c>
+      <c r="D6" s="19">
+        <v>81.061000000000007</v>
+      </c>
+      <c r="E6" s="20">
+        <v>80.697999999999993</v>
+      </c>
+      <c r="F6" s="15">
+        <v>25.107353</v>
+      </c>
+      <c r="G6" s="20">
+        <v>30.087271000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="I6" s="19">
+        <v>91.3</v>
+      </c>
+      <c r="J6" s="20">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15">
+        <v>39.506889000000001</v>
+      </c>
+      <c r="G7" s="20">
+        <v>37.957847999999998</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
+        <v>95.673000000000002</v>
+      </c>
+      <c r="D8" s="19">
+        <v>98.391999999999996</v>
+      </c>
+      <c r="E8" s="20">
+        <v>92.656999999999996</v>
+      </c>
+      <c r="F8" s="15">
+        <v>25.893902000000001</v>
+      </c>
+      <c r="G8" s="20">
+        <v>37.463112000000002</v>
+      </c>
+      <c r="H8" s="15">
+        <v>58</v>
+      </c>
+      <c r="I8" s="19">
+        <v>94.5</v>
+      </c>
+      <c r="J8" s="20">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="21">
+        <v>55.758000000000003</v>
+      </c>
+      <c r="D9" s="19">
+        <v>58.317999999999998</v>
+      </c>
+      <c r="E9" s="20">
+        <v>53.183</v>
+      </c>
+      <c r="F9" s="21">
+        <v>24.658042999999999</v>
+      </c>
+      <c r="G9" s="20">
+        <v>30.359583000000001</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="21">
+        <v>34.012999999999998</v>
+      </c>
+      <c r="D10" s="19">
+        <v>33.655999999999999</v>
+      </c>
+      <c r="E10" s="20">
+        <v>34.296999999999997</v>
+      </c>
+      <c r="F10" s="21">
+        <v>22.749447</v>
+      </c>
+      <c r="G10" s="20">
+        <v>28.840835999999999</v>
+      </c>
+      <c r="H10" s="21">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I10" s="19">
+        <v>95.8</v>
+      </c>
+      <c r="J10" s="20">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="15">
+        <v>83.831999999999994</v>
+      </c>
+      <c r="D11" s="16">
+        <v>88.113</v>
+      </c>
+      <c r="E11" s="17">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="F11" s="15">
+        <v>39.642325999999997</v>
+      </c>
+      <c r="G11" s="17">
+        <v>47.147049000000003</v>
+      </c>
+      <c r="H11" s="15">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="I11" s="16">
+        <v>84.5</v>
+      </c>
+      <c r="J11" s="17">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="23">
+        <v>88.073999999999998</v>
+      </c>
+      <c r="D12" s="24">
+        <v>90.933000000000007</v>
+      </c>
+      <c r="E12" s="25">
+        <v>85.328000000000003</v>
+      </c>
+      <c r="F12" s="23">
+        <v>60.429034999999999</v>
+      </c>
+      <c r="G12" s="25">
+        <v>62.234015999999997</v>
+      </c>
+      <c r="H12" s="23">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="I12" s="24">
+        <v>97.2</v>
+      </c>
+      <c r="J12" s="25">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="28">
+        <v>73.314110999999997</v>
+      </c>
+      <c r="D13" s="29">
+        <v>75.054221999999996</v>
+      </c>
+      <c r="E13" s="30">
+        <v>71.569556000000006</v>
+      </c>
+      <c r="F13" s="28">
+        <v>29.443968999999999</v>
+      </c>
+      <c r="G13" s="30">
+        <v>35.344208999999999</v>
+      </c>
+      <c r="H13" s="28">
+        <v>59.333333000000003</v>
+      </c>
+      <c r="I13" s="29">
+        <v>92.833332999999996</v>
+      </c>
+      <c r="J13" s="30">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="21">
+        <v>36.470005</v>
+      </c>
+      <c r="G14" s="20">
+        <v>41.183857000000003</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="21">
+        <v>28.054418999999999</v>
+      </c>
+      <c r="G15" s="20">
+        <v>30.125895</v>
+      </c>
+      <c r="H15" s="21">
+        <v>80.3</v>
+      </c>
+      <c r="I15" s="19">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="J15" s="20">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
+      <c r="C16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="21">
+        <v>44.760178000000003</v>
+      </c>
+      <c r="G16" s="20">
+        <v>43.719608000000001</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="C17" s="32">
+        <v>96.923000000000002</v>
+      </c>
+      <c r="D17" s="33">
+        <v>98.994</v>
+      </c>
+      <c r="E17" s="34">
+        <v>95.231999999999999</v>
+      </c>
+      <c r="F17" s="32">
+        <v>36.391112999999997</v>
+      </c>
+      <c r="G17" s="34">
+        <v>44.136229999999998</v>
+      </c>
+      <c r="H17" s="32">
+        <v>80</v>
+      </c>
+      <c r="I17" s="33">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J17" s="34">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="C18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="32">
+        <v>38.405788000000001</v>
+      </c>
+      <c r="G18" s="34">
+        <v>52.465983999999999</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="15">
+        <v>96.759</v>
+      </c>
+      <c r="D19" s="16">
+        <v>97.822999999999993</v>
+      </c>
+      <c r="E19" s="17">
+        <v>95.742000000000004</v>
+      </c>
+      <c r="F19" s="15">
+        <v>42.106152000000002</v>
+      </c>
+      <c r="G19" s="17">
+        <v>44.341335000000001</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="32">
+        <v>24.841729999999998</v>
+      </c>
+      <c r="G20" s="34">
+        <v>34.542793000000003</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="C21" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="32">
+        <v>45.978515999999999</v>
+      </c>
+      <c r="G21" s="34">
+        <v>49.731617</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
+      <c r="C22" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="C23" s="28">
+        <v>96.840999999999994</v>
+      </c>
+      <c r="D23" s="29">
+        <v>98.408500000000004</v>
+      </c>
+      <c r="E23" s="30">
+        <v>95.486999999999995</v>
+      </c>
+      <c r="F23" s="28">
+        <v>35.932594000000002</v>
+      </c>
+      <c r="G23" s="30">
+        <v>40.222251999999997</v>
+      </c>
+      <c r="H23" s="28">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="I23" s="29">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="J23" s="30">
+        <v>42.15</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+      <c r="C24" s="40">
+        <v>88.808999999999997</v>
+      </c>
+      <c r="D24" s="41">
+        <v>91.602999999999994</v>
+      </c>
+      <c r="E24" s="42">
+        <v>86.662000000000006</v>
+      </c>
+      <c r="F24" s="40">
+        <v>41.091327999999997</v>
+      </c>
+      <c r="G24" s="42">
+        <v>37.146335999999998</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="C25" s="21">
+        <v>50.517000000000003</v>
+      </c>
+      <c r="D25" s="19">
+        <v>64.882000000000005</v>
+      </c>
+      <c r="E25" s="20">
+        <v>45.722000000000001</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="C26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="20">
+        <v>40.220604000000002</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
+      <c r="C27" s="21">
+        <v>85.212000000000003</v>
+      </c>
+      <c r="D27" s="19">
+        <v>87.445999999999998</v>
+      </c>
+      <c r="E27" s="20">
+        <v>83.581999999999994</v>
+      </c>
+      <c r="F27" s="21">
+        <v>22.749697000000001</v>
+      </c>
+      <c r="G27" s="20">
+        <v>34.294235</v>
+      </c>
+      <c r="H27" s="21">
+        <v>23.1</v>
+      </c>
+      <c r="I27" s="19">
+        <v>95.6</v>
+      </c>
+      <c r="J27" s="20">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
+      <c r="C28" s="21">
+        <v>86.489000000000004</v>
+      </c>
+      <c r="D28" s="19">
+        <v>90.186999999999998</v>
+      </c>
+      <c r="E28" s="20">
+        <v>83.125</v>
+      </c>
+      <c r="F28" s="21">
+        <v>25.925076000000001</v>
+      </c>
+      <c r="G28" s="20">
+        <v>30.670147</v>
+      </c>
+      <c r="H28" s="21">
+        <v>68.8</v>
+      </c>
+      <c r="I28" s="19">
+        <v>89.6</v>
+      </c>
+      <c r="J28" s="20">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
+      <c r="C29" s="21">
+        <v>96.082999999999998</v>
+      </c>
+      <c r="D29" s="19">
+        <v>96.545000000000002</v>
+      </c>
+      <c r="E29" s="20">
+        <v>95.668000000000006</v>
+      </c>
+      <c r="F29" s="21">
+        <v>35.739612999999999</v>
+      </c>
+      <c r="G29" s="20">
+        <v>44.117092</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
+      <c r="C30" s="21">
+        <v>33.908000000000001</v>
+      </c>
+      <c r="D30" s="19">
+        <v>28.01</v>
+      </c>
+      <c r="E30" s="20">
+        <v>37.984000000000002</v>
+      </c>
+      <c r="F30" s="21">
+        <v>19.335228000000001</v>
+      </c>
+      <c r="G30" s="20">
+        <v>22.309152999999998</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
+      <c r="C31" s="21">
+        <v>86.777000000000001</v>
+      </c>
+      <c r="D31" s="19">
+        <v>88.988</v>
+      </c>
+      <c r="E31" s="20">
+        <v>84.786000000000001</v>
+      </c>
+      <c r="F31" s="21">
+        <v>26.566535999999999</v>
+      </c>
+      <c r="G31" s="20">
+        <v>37.682181999999997</v>
+      </c>
+      <c r="H31" s="21">
+        <v>29.6</v>
+      </c>
+      <c r="I31" s="19">
+        <v>80.5</v>
+      </c>
+      <c r="J31" s="20">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
+      <c r="C32" s="21">
+        <v>16.552</v>
+      </c>
+      <c r="D32" s="19">
+        <v>8.4130000000000003</v>
+      </c>
+      <c r="E32" s="20">
+        <v>24.727</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
+      <c r="C33" s="21">
+        <v>82.486999999999995</v>
+      </c>
+      <c r="D33" s="19">
+        <v>85.533000000000001</v>
+      </c>
+      <c r="E33" s="20">
+        <v>81.116</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="C34" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19"/>
+      <c r="C35" s="21">
+        <v>94.405000000000001</v>
+      </c>
+      <c r="D35" s="19">
+        <v>92.259</v>
+      </c>
+      <c r="E35" s="20">
+        <v>94.872</v>
+      </c>
+      <c r="F35" s="21">
+        <v>27.984660999999999</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
+      <c r="C36" s="21">
+        <v>93.581999999999994</v>
+      </c>
+      <c r="D36" s="19">
+        <v>96.082999999999998</v>
+      </c>
+      <c r="E36" s="20">
+        <v>91.105000000000004</v>
+      </c>
+      <c r="F36" s="21">
+        <v>40.736491999999998</v>
+      </c>
+      <c r="G36" s="20">
+        <v>52.199115999999997</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
+      <c r="C37" s="23">
+        <v>95.206000000000003</v>
+      </c>
+      <c r="D37" s="24">
+        <v>97.397000000000006</v>
+      </c>
+      <c r="E37" s="25">
+        <v>93.14</v>
+      </c>
+      <c r="F37" s="23">
+        <v>32.388126</v>
+      </c>
+      <c r="G37" s="25">
+        <v>39.937533999999999</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
+      <c r="C38" s="28">
+        <v>75.835583</v>
+      </c>
+      <c r="D38" s="29">
+        <v>77.278833000000006</v>
+      </c>
+      <c r="E38" s="30">
+        <v>75.207417000000007</v>
+      </c>
+      <c r="F38" s="28">
+        <v>28.829094000000001</v>
+      </c>
+      <c r="G38" s="30">
+        <v>37.791547000000001</v>
+      </c>
+      <c r="H38" s="28">
+        <v>40.5</v>
+      </c>
+      <c r="I38" s="29">
+        <v>88.566666999999995</v>
+      </c>
+      <c r="J38" s="30">
+        <v>23.166667</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
+      <c r="C39" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="44">
+        <v>27.66872</v>
+      </c>
+      <c r="G39" s="46">
+        <v>32.218018000000001</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
+      <c r="C40" s="21">
+        <v>71.33</v>
+      </c>
+      <c r="D40" s="19">
+        <v>62.482999999999997</v>
+      </c>
+      <c r="E40" s="20">
+        <v>73.287000000000006</v>
+      </c>
+      <c r="F40" s="21">
+        <v>29.328465000000001</v>
+      </c>
+      <c r="G40" s="20">
+        <v>31.581980000000001</v>
+      </c>
+      <c r="H40" s="21">
+        <v>39.1</v>
+      </c>
+      <c r="I40" s="19">
+        <v>88.6</v>
+      </c>
+      <c r="J40" s="20">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="C41" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="34">
+        <v>36.157229999999998</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="C42" s="32">
+        <v>89.355000000000004</v>
+      </c>
+      <c r="D42" s="33">
+        <v>91.701999999999998</v>
+      </c>
+      <c r="E42" s="34">
+        <v>88.158000000000001</v>
+      </c>
+      <c r="F42" s="32">
+        <v>30.517626</v>
+      </c>
+      <c r="G42" s="34">
+        <v>32.639004</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19"/>
+      <c r="C43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="21">
+        <v>27.835277999999999</v>
+      </c>
+      <c r="G43" s="20">
+        <v>34.274456000000001</v>
+      </c>
+      <c r="H43" s="21">
+        <v>47.2</v>
+      </c>
+      <c r="I43" s="19">
+        <v>91.1</v>
+      </c>
+      <c r="J43" s="20">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
+      <c r="C44" s="36">
+        <v>36.911000000000001</v>
+      </c>
+      <c r="D44" s="37">
+        <v>30.323</v>
+      </c>
+      <c r="E44" s="38">
+        <v>39.295999999999999</v>
+      </c>
+      <c r="F44" s="36">
+        <v>32.705840999999999</v>
+      </c>
+      <c r="G44" s="38">
+        <v>37.484988999999999</v>
+      </c>
+      <c r="H44" s="36">
+        <v>60.9</v>
+      </c>
+      <c r="I44" s="37">
+        <v>96</v>
+      </c>
+      <c r="J44" s="38">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
+      <c r="C45" s="28">
+        <v>65.865333000000007</v>
+      </c>
+      <c r="D45" s="29">
+        <v>61.502667000000002</v>
+      </c>
+      <c r="E45" s="30">
+        <v>66.913667000000004</v>
+      </c>
+      <c r="F45" s="28">
+        <v>29.014696000000001</v>
+      </c>
+      <c r="G45" s="30">
+        <v>32.434331999999998</v>
+      </c>
+      <c r="H45" s="28">
+        <v>49.066667000000002</v>
+      </c>
+      <c r="I45" s="29">
+        <v>91.9</v>
+      </c>
+      <c r="J45" s="30">
+        <v>40.533332999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
+      <c r="C46" s="40">
+        <v>96.346999999999994</v>
+      </c>
+      <c r="D46" s="41">
+        <v>98.156000000000006</v>
+      </c>
+      <c r="E46" s="42">
+        <v>94.378</v>
+      </c>
+      <c r="F46" s="40">
+        <v>42.421092999999999</v>
+      </c>
+      <c r="G46" s="42">
+        <v>45.545307000000001</v>
+      </c>
+      <c r="H46" s="40">
+        <v>66.8</v>
+      </c>
+      <c r="I46" s="41">
+        <v>90.6</v>
+      </c>
+      <c r="J46" s="42">
+        <v>50.1</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
+      <c r="C47" s="21">
+        <v>95.155000000000001</v>
+      </c>
+      <c r="D47" s="19">
+        <v>97.52</v>
+      </c>
+      <c r="E47" s="20">
+        <v>92.927000000000007</v>
+      </c>
+      <c r="F47" s="21">
+        <v>30.887073999999998</v>
+      </c>
+      <c r="G47" s="20">
+        <v>37.393439999999998</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="C48" s="32">
+        <v>63.819000000000003</v>
+      </c>
+      <c r="D48" s="33">
+        <v>63.898000000000003</v>
+      </c>
+      <c r="E48" s="34">
+        <v>63.744</v>
+      </c>
+      <c r="F48" s="32">
+        <v>29.004308999999999</v>
+      </c>
+      <c r="G48" s="34">
+        <v>37.198054999999997</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
+      <c r="C49" s="21">
+        <v>92.125</v>
+      </c>
+      <c r="D49" s="19">
+        <v>95.447999999999993</v>
+      </c>
+      <c r="E49" s="20">
+        <v>89.236999999999995</v>
+      </c>
+      <c r="F49" s="21">
+        <v>37.657238</v>
+      </c>
+      <c r="G49" s="20">
+        <v>39.330970999999998</v>
+      </c>
+      <c r="H49" s="21">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I49" s="19">
+        <v>87.9</v>
+      </c>
+      <c r="J49" s="20">
+        <v>66.900000000000006</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
+      <c r="C50" s="21">
+        <v>84.132999999999996</v>
+      </c>
+      <c r="D50" s="19">
+        <v>89.453000000000003</v>
+      </c>
+      <c r="E50" s="20">
+        <v>78.447999999999993</v>
+      </c>
+      <c r="F50" s="21">
+        <v>40.013339999999999</v>
+      </c>
+      <c r="G50" s="20">
+        <v>47.738242999999997</v>
+      </c>
+      <c r="H50" s="21">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="I50" s="19">
+        <v>77.2</v>
+      </c>
+      <c r="J50" s="20">
+        <v>34.700000000000003</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -2302,887 +3038,1652 @@
       <c r="B51" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
+      <c r="C51" s="15">
+        <v>78.051000000000002</v>
+      </c>
+      <c r="D51" s="16">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="E51" s="17">
+        <v>77.206000000000003</v>
+      </c>
+      <c r="F51" s="15">
+        <v>35.549362000000002</v>
+      </c>
+      <c r="G51" s="17">
+        <v>37.708401000000002</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="19"/>
+      <c r="C52" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="21">
+        <v>30.351438999999999</v>
+      </c>
+      <c r="G52" s="20">
+        <v>35.554625999999999</v>
+      </c>
+      <c r="H52" s="21">
+        <v>75.7</v>
+      </c>
+      <c r="I52" s="19">
+        <v>96.9</v>
+      </c>
+      <c r="J52" s="20">
+        <v>38.799999999999997</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="19"/>
+      <c r="C53" s="21">
+        <v>94.774000000000001</v>
+      </c>
+      <c r="D53" s="19">
+        <v>97.391000000000005</v>
+      </c>
+      <c r="E53" s="20">
+        <v>92.188000000000002</v>
+      </c>
+      <c r="F53" s="21">
+        <v>43.510899000000002</v>
+      </c>
+      <c r="G53" s="20">
+        <v>39.582264000000002</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19"/>
+      <c r="C54" s="21">
+        <v>89.662000000000006</v>
+      </c>
+      <c r="D54" s="19">
+        <v>93.686000000000007</v>
+      </c>
+      <c r="E54" s="20">
+        <v>85.706000000000003</v>
+      </c>
+      <c r="F54" s="21">
+        <v>39.898605000000003</v>
+      </c>
+      <c r="G54" s="20">
+        <v>47.938003999999999</v>
+      </c>
+      <c r="H54" s="21">
+        <v>68.7</v>
+      </c>
+      <c r="I54" s="19">
+        <v>71.2</v>
+      </c>
+      <c r="J54" s="20">
+        <v>43.1</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19"/>
+      <c r="C55" s="21">
+        <v>95.415999999999997</v>
+      </c>
+      <c r="D55" s="19">
+        <v>97.418000000000006</v>
+      </c>
+      <c r="E55" s="20">
+        <v>94.242999999999995</v>
+      </c>
+      <c r="F55" s="21">
+        <v>31.705645000000001</v>
+      </c>
+      <c r="G55" s="20">
+        <v>40.191840999999997</v>
+      </c>
+      <c r="H55" s="21">
+        <v>79.5</v>
+      </c>
+      <c r="I55" s="19">
+        <v>86.5</v>
+      </c>
+      <c r="J55" s="20">
+        <v>63.7</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="19"/>
+      <c r="C56" s="21">
+        <v>98.49</v>
+      </c>
+      <c r="D56" s="19">
+        <v>99.012</v>
+      </c>
+      <c r="E56" s="20">
+        <v>97.947000000000003</v>
+      </c>
+      <c r="F56" s="21">
+        <v>35.663001999999999</v>
+      </c>
+      <c r="G56" s="20">
+        <v>38.977542999999997</v>
+      </c>
+      <c r="H56" s="21">
+        <v>85.1</v>
+      </c>
+      <c r="I56" s="19">
+        <v>86</v>
+      </c>
+      <c r="J56" s="20">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="21">
+        <v>54.875079999999997</v>
+      </c>
+      <c r="G57" s="20">
+        <v>56.859459000000001</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="19"/>
+      <c r="C58" s="21">
+        <v>95.1</v>
+      </c>
+      <c r="D58" s="19">
+        <v>96.98</v>
+      </c>
+      <c r="E58" s="20">
+        <v>93.703000000000003</v>
+      </c>
+      <c r="F58" s="21">
+        <v>36.502388000000003</v>
+      </c>
+      <c r="G58" s="20">
+        <v>42.071033</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
+      <c r="C59" s="21">
+        <v>93.11</v>
+      </c>
+      <c r="D59" s="19">
+        <v>96.629000000000005</v>
+      </c>
+      <c r="E59" s="20">
+        <v>89.275999999999996</v>
+      </c>
+      <c r="F59" s="21">
+        <v>37.643970000000003</v>
+      </c>
+      <c r="G59" s="20">
+        <v>43.537391999999997</v>
+      </c>
+      <c r="H59" s="21">
+        <v>62.5</v>
+      </c>
+      <c r="I59" s="19">
+        <v>91.3</v>
+      </c>
+      <c r="J59" s="20">
+        <v>42.4</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="C60" s="23">
+        <v>92.343000000000004</v>
+      </c>
+      <c r="D60" s="24">
+        <v>93.866</v>
+      </c>
+      <c r="E60" s="25">
+        <v>90.635000000000005</v>
+      </c>
+      <c r="F60" s="23">
+        <v>31.342903</v>
+      </c>
+      <c r="G60" s="25">
+        <v>33.665599999999998</v>
+      </c>
+      <c r="H60" s="23">
+        <v>68.7</v>
+      </c>
+      <c r="I60" s="24">
+        <v>81</v>
+      </c>
+      <c r="J60" s="25">
+        <v>50.6</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
+      <c r="C61" s="28">
+        <v>89.886538000000002</v>
+      </c>
+      <c r="D61" s="29">
+        <v>92.172846000000007</v>
+      </c>
+      <c r="E61" s="30">
+        <v>87.664462</v>
+      </c>
+      <c r="F61" s="28">
+        <v>47.554051999999999</v>
+      </c>
+      <c r="G61" s="30">
+        <v>50.176034999999999</v>
+      </c>
+      <c r="H61" s="28">
+        <v>72.633332999999993</v>
+      </c>
+      <c r="I61" s="29">
+        <v>85.4</v>
+      </c>
+      <c r="J61" s="30">
+        <v>50.311110999999997</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="53"/>
+      <c r="C62" s="50">
+        <v>80.247614999999996</v>
+      </c>
+      <c r="D62" s="51">
+        <v>81.600154000000003</v>
+      </c>
+      <c r="E62" s="52">
+        <v>78.922256000000004</v>
+      </c>
+      <c r="F62" s="50">
+        <v>34.087333000000001</v>
+      </c>
+      <c r="G62" s="52">
+        <v>38.604711999999999</v>
+      </c>
+      <c r="H62" s="50">
+        <v>62.552174000000001</v>
+      </c>
+      <c r="I62" s="51">
+        <v>87.595652000000001</v>
+      </c>
+      <c r="J62" s="52">
+        <v>40.034782999999997</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="53"/>
+      <c r="C63" s="50">
+        <v>37.673223</v>
+      </c>
+      <c r="D63" s="51">
+        <v>37.018999999999998</v>
+      </c>
+      <c r="E63" s="52">
+        <v>38.043106000000002</v>
+      </c>
+      <c r="F63" s="50">
+        <v>16.28096</v>
+      </c>
+      <c r="G63" s="52">
+        <v>19.417919000000001</v>
+      </c>
+      <c r="H63" s="50">
+        <v>42.619118</v>
+      </c>
+      <c r="I63" s="51">
+        <v>91.885294000000002</v>
+      </c>
+      <c r="J63" s="52">
+        <v>23.355882000000001</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55" t="s">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="58"/>
+      <c r="C64" s="55">
+        <v>53.26088</v>
+      </c>
+      <c r="D64" s="56">
+        <v>50.952199999999998</v>
+      </c>
+      <c r="E64" s="57">
+        <v>55.050919999999998</v>
+      </c>
+      <c r="F64" s="55">
+        <v>30.032776999999999</v>
+      </c>
+      <c r="G64" s="57">
+        <v>36.276912000000003</v>
+      </c>
+      <c r="H64" s="55">
+        <v>69.738461999999998</v>
+      </c>
+      <c r="I64" s="56">
+        <v>87.069231000000002</v>
+      </c>
+      <c r="J64" s="57">
+        <v>39.553846</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="62"/>
+      <c r="C65" s="59">
+        <v>71.847700000000003</v>
+      </c>
+      <c r="D65" s="60">
+        <v>71.108099999999993</v>
+      </c>
+      <c r="E65" s="61">
+        <v>71.768450000000001</v>
+      </c>
+      <c r="F65" s="59">
+        <v>13.722288000000001</v>
+      </c>
+      <c r="G65" s="61">
+        <v>18.068622000000001</v>
+      </c>
+      <c r="H65" s="59">
+        <v>39.712499999999999</v>
+      </c>
+      <c r="I65" s="60">
+        <v>86.612499999999997</v>
+      </c>
+      <c r="J65" s="61">
+        <v>18.181249999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="63" t="s">
+      <c r="A66" s="53"/>
+      <c r="B66" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
+      <c r="C66" s="63">
+        <v>50.157443999999998</v>
+      </c>
+      <c r="D66" s="64">
+        <v>50.091669000000003</v>
+      </c>
+      <c r="E66" s="65">
+        <v>50.030225999999999</v>
+      </c>
+      <c r="F66" s="63">
+        <v>17.238206000000002</v>
+      </c>
+      <c r="G66" s="65">
+        <v>20.432766000000001</v>
+      </c>
+      <c r="H66" s="63">
+        <v>47.657142999999998</v>
+      </c>
+      <c r="I66" s="64">
+        <v>90.801098999999994</v>
+      </c>
+      <c r="J66" s="65">
+        <v>27.571428999999998</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="62"/>
+      <c r="C67" s="59">
+        <v>73.332234999999997</v>
+      </c>
+      <c r="D67" s="60">
+        <v>73.958471000000003</v>
+      </c>
+      <c r="E67" s="61">
+        <v>72.676058999999995</v>
+      </c>
+      <c r="F67" s="59">
+        <v>29.988773999999999</v>
+      </c>
+      <c r="G67" s="61">
+        <v>34.177461000000001</v>
+      </c>
+      <c r="H67" s="59">
+        <v>54.287500000000001</v>
+      </c>
+      <c r="I67" s="60">
+        <v>90.712500000000006</v>
+      </c>
+      <c r="J67" s="61">
+        <v>32.924999999999997</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="59" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="62"/>
+      <c r="C68" s="59">
+        <v>85.567420999999996</v>
+      </c>
+      <c r="D68" s="60">
+        <v>87.286421000000004</v>
+      </c>
+      <c r="E68" s="61">
+        <v>83.922788999999995</v>
+      </c>
+      <c r="F68" s="59">
+        <v>37.379852</v>
+      </c>
+      <c r="G68" s="61">
+        <v>40.595790000000001</v>
+      </c>
+      <c r="H68" s="59">
+        <v>67.683333000000005</v>
+      </c>
+      <c r="I68" s="60">
+        <v>86.641666999999998</v>
+      </c>
+      <c r="J68" s="61">
+        <v>46.858333000000002</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="62"/>
+      <c r="C69" s="59">
+        <v>91.762600000000006</v>
+      </c>
+      <c r="D69" s="60">
+        <v>94.095600000000005</v>
+      </c>
+      <c r="E69" s="61">
+        <v>89.579599999999999</v>
+      </c>
+      <c r="F69" s="59">
+        <v>33.652442999999998</v>
+      </c>
+      <c r="G69" s="61">
+        <v>40.512689999999999</v>
+      </c>
+      <c r="H69" s="59">
+        <v>49.2</v>
+      </c>
+      <c r="I69" s="60">
+        <v>85.05</v>
+      </c>
+      <c r="J69" s="61">
+        <v>25.1</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59" t="s">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="62"/>
+      <c r="C70" s="59">
+        <v>93.162000000000006</v>
+      </c>
+      <c r="D70" s="60">
+        <v>95.307749999999999</v>
+      </c>
+      <c r="E70" s="61">
+        <v>91.145499999999998</v>
+      </c>
+      <c r="F70" s="59">
+        <v>37.286293999999998</v>
+      </c>
+      <c r="G70" s="61">
+        <v>42.625410000000002</v>
+      </c>
+      <c r="H70" s="59">
+        <v>63.3</v>
+      </c>
+      <c r="I70" s="60">
+        <v>76.066666999999995</v>
+      </c>
+      <c r="J70" s="61">
+        <v>32.633333</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="59" t="s">
+      <c r="A71" s="53"/>
+      <c r="B71" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="62"/>
+      <c r="C71" s="59">
+        <v>89.886538000000002</v>
+      </c>
+      <c r="D71" s="60">
+        <v>92.172846000000007</v>
+      </c>
+      <c r="E71" s="61">
+        <v>87.664462</v>
+      </c>
+      <c r="F71" s="59">
+        <v>47.554051999999999</v>
+      </c>
+      <c r="G71" s="61">
+        <v>50.176034999999999</v>
+      </c>
+      <c r="H71" s="59">
+        <v>72.633332999999993</v>
+      </c>
+      <c r="I71" s="60">
+        <v>85.4</v>
+      </c>
+      <c r="J71" s="61">
+        <v>50.311110999999997</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59" t="s">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="62"/>
+      <c r="C72" s="59">
+        <v>82.385999999999996</v>
+      </c>
+      <c r="D72" s="60">
+        <v>86.284000000000006</v>
+      </c>
+      <c r="E72" s="61">
+        <v>80.259500000000003</v>
+      </c>
+      <c r="F72" s="59">
+        <v>26.200323999999998</v>
+      </c>
+      <c r="G72" s="61">
+        <v>33.886797999999999</v>
+      </c>
+      <c r="H72" s="59">
+        <v>45.95</v>
+      </c>
+      <c r="I72" s="60">
+        <v>92.6</v>
+      </c>
+      <c r="J72" s="61">
+        <v>27.95</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="59" t="s">
+      <c r="A73" s="53"/>
+      <c r="B73" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="62"/>
+      <c r="C73" s="59">
+        <v>72.367999999999995</v>
+      </c>
+      <c r="D73" s="60">
+        <v>72.930999999999997</v>
+      </c>
+      <c r="E73" s="61">
+        <v>71.734267000000003</v>
+      </c>
+      <c r="F73" s="59">
+        <v>31.571166999999999</v>
+      </c>
+      <c r="G73" s="61">
+        <v>37.851599</v>
+      </c>
+      <c r="H73" s="59">
+        <v>59.333333000000003</v>
+      </c>
+      <c r="I73" s="60">
+        <v>92.833332999999996</v>
+      </c>
+      <c r="J73" s="61">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="59" t="s">
+      <c r="A74" s="53"/>
+      <c r="B74" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="62"/>
+      <c r="C74" s="59">
+        <v>63.133000000000003</v>
+      </c>
+      <c r="D74" s="60">
+        <v>61.012500000000003</v>
+      </c>
+      <c r="E74" s="61">
+        <v>63.726999999999997</v>
+      </c>
+      <c r="F74" s="59">
+        <v>28.499220999999999</v>
+      </c>
+      <c r="G74" s="61">
+        <v>33.735531999999999</v>
+      </c>
+      <c r="H74" s="59">
+        <v>54.05</v>
+      </c>
+      <c r="I74" s="60">
+        <v>93.55</v>
+      </c>
+      <c r="J74" s="61">
+        <v>50.25</v>
+      </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="59" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="69"/>
+      <c r="C75" s="66">
+        <v>86.613749999999996</v>
+      </c>
+      <c r="D75" s="67">
+        <v>88.776750000000007</v>
+      </c>
+      <c r="E75" s="68">
+        <v>84.35275</v>
+      </c>
+      <c r="F75" s="66">
+        <v>38.287762999999998</v>
+      </c>
+      <c r="G75" s="68">
+        <v>45.066426</v>
+      </c>
+      <c r="H75" s="66">
+        <v>58</v>
+      </c>
+      <c r="I75" s="67">
+        <v>94.5</v>
+      </c>
+      <c r="J75" s="68">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="70" t="s">
+      <c r="A76" s="53"/>
+      <c r="B76" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="73"/>
+      <c r="C76" s="70">
+        <v>71.600429000000005</v>
+      </c>
+      <c r="D76" s="71">
+        <v>71.741714000000002</v>
+      </c>
+      <c r="E76" s="72">
+        <v>71.600999999999999</v>
+      </c>
+      <c r="F76" s="70">
+        <v>22.493319</v>
+      </c>
+      <c r="G76" s="72">
+        <v>27.151406000000001</v>
+      </c>
+      <c r="H76" s="70">
+        <v>44.9375</v>
+      </c>
+      <c r="I76" s="71">
+        <v>78.737499999999997</v>
+      </c>
+      <c r="J76" s="72">
+        <v>15.9625</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="53"/>
+      <c r="B77" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="62"/>
+      <c r="C77" s="59">
+        <v>55.203231000000002</v>
+      </c>
+      <c r="D77" s="60">
+        <v>53.706308</v>
+      </c>
+      <c r="E77" s="61">
+        <v>56.174923</v>
+      </c>
+      <c r="F77" s="59">
+        <v>30.642104</v>
+      </c>
+      <c r="G77" s="61">
+        <v>37.641745999999998</v>
+      </c>
+      <c r="H77" s="59">
+        <v>69.412499999999994</v>
+      </c>
+      <c r="I77" s="60">
+        <v>89.362499999999997</v>
+      </c>
+      <c r="J77" s="61">
+        <v>37.362499999999997</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="59" t="s">
+      <c r="A78" s="53"/>
+      <c r="B78" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="62"/>
+      <c r="C78" s="59">
+        <v>2.5961850000000002</v>
+      </c>
+      <c r="D78" s="60">
+        <v>2.9752589999999999</v>
+      </c>
+      <c r="E78" s="61">
+        <v>2.2784439999999999</v>
+      </c>
+      <c r="F78" s="59">
+        <v>18.267147999999999</v>
+      </c>
+      <c r="G78" s="61">
+        <v>20.129069000000001</v>
+      </c>
+      <c r="H78" s="59">
+        <v>28.921738999999999</v>
+      </c>
+      <c r="I78" s="60">
+        <v>95.543477999999993</v>
+      </c>
+      <c r="J78" s="61">
+        <v>16.195651999999999</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="63" t="s">
+      <c r="A79" s="53"/>
+      <c r="B79" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="66"/>
+      <c r="C79" s="63">
+        <v>9.5150000000000006</v>
+      </c>
+      <c r="D79" s="64">
+        <v>10.153625</v>
+      </c>
+      <c r="E79" s="65">
+        <v>9.0720620000000007</v>
+      </c>
+      <c r="F79" s="63">
+        <v>14.12716</v>
+      </c>
+      <c r="G79" s="65">
+        <v>15.772551999999999</v>
+      </c>
+      <c r="H79" s="63">
+        <v>31.12</v>
+      </c>
+      <c r="I79" s="64">
+        <v>95.32</v>
+      </c>
+      <c r="J79" s="65">
+        <v>16.495000000000001</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="70" t="s">
+      <c r="A80" s="53"/>
+      <c r="B80" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="73"/>
+      <c r="C80" s="70">
+        <v>85.5715</v>
+      </c>
+      <c r="D80" s="71">
+        <v>87.504999999999995</v>
+      </c>
+      <c r="E80" s="72">
+        <v>83.989000000000004</v>
+      </c>
+      <c r="F80" s="70">
+        <v>32.381633000000001</v>
+      </c>
+      <c r="G80" s="72">
+        <v>37.674295000000001</v>
+      </c>
+      <c r="H80" s="70">
+        <v>80</v>
+      </c>
+      <c r="I80" s="71">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J80" s="72">
+        <v>31</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="59" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="62"/>
+      <c r="C81" s="59">
+        <v>51.802750000000003</v>
+      </c>
+      <c r="D81" s="60">
+        <v>47.466000000000001</v>
+      </c>
+      <c r="E81" s="61">
+        <v>53.335000000000001</v>
+      </c>
+      <c r="F81" s="59">
+        <v>29.102609999999999</v>
+      </c>
+      <c r="G81" s="61">
+        <v>33.469805000000001</v>
+      </c>
+      <c r="H81" s="59">
+        <v>43.544443999999999</v>
+      </c>
+      <c r="I81" s="60">
+        <v>93.822221999999996</v>
+      </c>
+      <c r="J81" s="61">
+        <v>20.555555999999999</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="62"/>
+      <c r="C82" s="59">
+        <v>79.639171000000005</v>
+      </c>
+      <c r="D82" s="60">
+        <v>80.925314</v>
+      </c>
+      <c r="E82" s="61">
+        <v>78.343199999999996</v>
+      </c>
+      <c r="F82" s="59">
+        <v>34.348452999999999</v>
+      </c>
+      <c r="G82" s="61">
+        <v>38.763387999999999</v>
+      </c>
+      <c r="H82" s="59">
+        <v>61.759090999999998</v>
+      </c>
+      <c r="I82" s="60">
+        <v>88.55</v>
+      </c>
+      <c r="J82" s="61">
+        <v>40.445455000000003</v>
+      </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="63" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="66"/>
+      <c r="C83" s="63">
+        <v>36.358848999999999</v>
+      </c>
+      <c r="D83" s="64">
+        <v>36.047186000000004</v>
+      </c>
+      <c r="E83" s="65">
+        <v>36.620604999999998</v>
+      </c>
+      <c r="F83" s="63">
+        <v>15.219939</v>
+      </c>
+      <c r="G83" s="65">
+        <v>18.251570000000001</v>
+      </c>
+      <c r="H83" s="63">
+        <v>42.477966000000002</v>
+      </c>
+      <c r="I83" s="64">
+        <v>91.589831000000004</v>
+      </c>
+      <c r="J83" s="65">
+        <v>23.783051</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="70" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="73"/>
+      <c r="C84" s="70">
+        <v>92.962249999999997</v>
+      </c>
+      <c r="D84" s="71">
+        <v>95.056624999999997</v>
+      </c>
+      <c r="E84" s="72">
+        <v>90.911438000000004</v>
+      </c>
+      <c r="F84" s="70">
+        <v>33.14676</v>
+      </c>
+      <c r="G84" s="72">
+        <v>40.803880999999997</v>
+      </c>
+      <c r="H84" s="70">
+        <v>67.022221999999999</v>
+      </c>
+      <c r="I84" s="71">
+        <v>81.644443999999993</v>
+      </c>
+      <c r="J84" s="72">
+        <v>40.688889000000003</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="74" t="s">
+      <c r="A85" s="53"/>
+      <c r="B85" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="62"/>
+      <c r="C85" s="59">
+        <v>86.125</v>
+      </c>
+      <c r="D85" s="60">
+        <v>97.295000000000002</v>
+      </c>
+      <c r="E85" s="61">
+        <v>82.632999999999996</v>
+      </c>
+      <c r="F85" s="59">
+        <v>24.868406</v>
+      </c>
+      <c r="G85" s="61">
+        <v>30.658733000000002</v>
+      </c>
+      <c r="H85" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="61" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="59" t="s">
+      <c r="A86" s="53"/>
+      <c r="B86" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="62"/>
+      <c r="C86" s="59">
+        <v>78.389411999999993</v>
+      </c>
+      <c r="D86" s="60">
+        <v>80.402587999999994</v>
+      </c>
+      <c r="E86" s="61">
+        <v>76.492118000000005</v>
+      </c>
+      <c r="F86" s="59">
+        <v>37.617708999999998</v>
+      </c>
+      <c r="G86" s="61">
+        <v>41.027577000000001</v>
+      </c>
+      <c r="H86" s="59">
+        <v>66.275000000000006</v>
+      </c>
+      <c r="I86" s="60">
+        <v>90.708332999999996</v>
+      </c>
+      <c r="J86" s="61">
+        <v>44.283332999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="59" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="62"/>
+      <c r="C87" s="59">
+        <v>74.998943999999995</v>
+      </c>
+      <c r="D87" s="60">
+        <v>74.722611000000001</v>
+      </c>
+      <c r="E87" s="61">
+        <v>74.925111000000001</v>
+      </c>
+      <c r="F87" s="59">
+        <v>19.678657000000001</v>
+      </c>
+      <c r="G87" s="61">
+        <v>25.959368999999999</v>
+      </c>
+      <c r="H87" s="59">
+        <v>49.382353000000002</v>
+      </c>
+      <c r="I87" s="60">
+        <v>88.464706000000007</v>
+      </c>
+      <c r="J87" s="61">
+        <v>24.317647000000001</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="62"/>
+      <c r="C88" s="59">
+        <v>51.969250000000002</v>
+      </c>
+      <c r="D88" s="60">
+        <v>49.699249999999999</v>
+      </c>
+      <c r="E88" s="61">
+        <v>53.677500000000002</v>
+      </c>
+      <c r="F88" s="59">
+        <v>25.241453</v>
+      </c>
+      <c r="G88" s="61">
+        <v>30.948878000000001</v>
+      </c>
+      <c r="H88" s="59">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I88" s="60">
+        <v>95.8</v>
+      </c>
+      <c r="J88" s="61">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="59" t="s">
+      <c r="A89" s="53"/>
+      <c r="B89" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="62"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="62"/>
+      <c r="C89" s="59">
+        <v>49.759580999999997</v>
+      </c>
+      <c r="D89" s="60">
+        <v>47.910806000000001</v>
+      </c>
+      <c r="E89" s="61">
+        <v>50.779257999999999</v>
+      </c>
+      <c r="F89" s="59">
+        <v>16.666141</v>
+      </c>
+      <c r="G89" s="61">
+        <v>20.844567000000001</v>
+      </c>
+      <c r="H89" s="59">
+        <v>49.896154000000003</v>
+      </c>
+      <c r="I89" s="60">
+        <v>90.796154000000001</v>
+      </c>
+      <c r="J89" s="61">
+        <v>29.076923000000001</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="63" t="s">
+      <c r="A90" s="53"/>
+      <c r="B90" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="66"/>
+      <c r="C90" s="63">
+        <v>11.837432</v>
+      </c>
+      <c r="D90" s="64">
+        <v>11.512226999999999</v>
+      </c>
+      <c r="E90" s="65">
+        <v>12.139818</v>
+      </c>
+      <c r="F90" s="63">
+        <v>15.196937</v>
+      </c>
+      <c r="G90" s="65">
+        <v>16.885261</v>
+      </c>
+      <c r="H90" s="63">
+        <v>30.452000000000002</v>
+      </c>
+      <c r="I90" s="64">
+        <v>95.343999999999994</v>
+      </c>
+      <c r="J90" s="65">
+        <v>16.751999999999999</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="70" t="s">
+      <c r="A91" s="53"/>
+      <c r="B91" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="73"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="73"/>
+      <c r="C91" s="70">
+        <v>90.122808000000006</v>
+      </c>
+      <c r="D91" s="71">
+        <v>92.783000000000001</v>
+      </c>
+      <c r="E91" s="72">
+        <v>87.983192000000003</v>
+      </c>
+      <c r="F91" s="70">
+        <v>33.765115000000002</v>
+      </c>
+      <c r="G91" s="72">
+        <v>41.992274999999999</v>
+      </c>
+      <c r="H91" s="70">
+        <v>64.45</v>
+      </c>
+      <c r="I91" s="71">
+        <v>85.264285999999998</v>
+      </c>
+      <c r="J91" s="72">
+        <v>39.871428999999999</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="59" t="s">
+      <c r="A92" s="53"/>
+      <c r="B92" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="62"/>
+      <c r="C92" s="59">
+        <v>75.016110999999995</v>
+      </c>
+      <c r="D92" s="60">
+        <v>78.519110999999995</v>
+      </c>
+      <c r="E92" s="61">
+        <v>73.340221999999997</v>
+      </c>
+      <c r="F92" s="59">
+        <v>25.760428000000001</v>
+      </c>
+      <c r="G92" s="61">
+        <v>37.521261000000003</v>
+      </c>
+      <c r="H92" s="59">
+        <v>53.14</v>
+      </c>
+      <c r="I92" s="60">
+        <v>82.38</v>
+      </c>
+      <c r="J92" s="61">
+        <v>15.92</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="59" t="s">
+      <c r="A93" s="53"/>
+      <c r="B93" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="62"/>
+      <c r="C93" s="59">
+        <v>59.572400000000002</v>
+      </c>
+      <c r="D93" s="60">
+        <v>57.863</v>
+      </c>
+      <c r="E93" s="61">
+        <v>61.061</v>
+      </c>
+      <c r="F93" s="59">
+        <v>24.487532999999999</v>
+      </c>
+      <c r="G93" s="61">
+        <v>26.697195000000001</v>
+      </c>
+      <c r="H93" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="61" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59" t="s">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="62"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="62"/>
+      <c r="C94" s="59">
+        <v>47.868842000000001</v>
+      </c>
+      <c r="D94" s="60">
+        <v>44.533895000000001</v>
+      </c>
+      <c r="E94" s="61">
+        <v>50.435789</v>
+      </c>
+      <c r="F94" s="59">
+        <v>16.553971000000001</v>
+      </c>
+      <c r="G94" s="61">
+        <v>20.992425000000001</v>
+      </c>
+      <c r="H94" s="59">
+        <v>60.9</v>
+      </c>
+      <c r="I94" s="60">
+        <v>88.58</v>
+      </c>
+      <c r="J94" s="61">
+        <v>25.82</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="59" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="62"/>
+      <c r="C95" s="59">
+        <v>86.281082999999995</v>
+      </c>
+      <c r="D95" s="60">
+        <v>88.039249999999996</v>
+      </c>
+      <c r="E95" s="61">
+        <v>84.751999999999995</v>
+      </c>
+      <c r="F95" s="59">
+        <v>31.532388000000001</v>
+      </c>
+      <c r="G95" s="61">
+        <v>39.388171999999997</v>
+      </c>
+      <c r="H95" s="59">
+        <v>64.244444000000001</v>
+      </c>
+      <c r="I95" s="60">
+        <v>86.877778000000006</v>
+      </c>
+      <c r="J95" s="61">
+        <v>39.355556</v>
+      </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="63" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="66"/>
+      <c r="C96" s="63">
+        <v>62.230817999999999</v>
+      </c>
+      <c r="D96" s="64">
+        <v>62.066727</v>
+      </c>
+      <c r="E96" s="65">
+        <v>62.448363999999998</v>
+      </c>
+      <c r="F96" s="63">
+        <v>35.564993000000001</v>
+      </c>
+      <c r="G96" s="65">
+        <v>40.541015000000002</v>
+      </c>
+      <c r="H96" s="63">
+        <v>38.369230999999999</v>
+      </c>
+      <c r="I96" s="64">
+        <v>93.353846000000004</v>
+      </c>
+      <c r="J96" s="65">
+        <v>24.630769000000001</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="73"/>
+      <c r="C97" s="70">
+        <v>88.551000000000002</v>
+      </c>
+      <c r="D97" s="71">
+        <v>91.447592999999998</v>
+      </c>
+      <c r="E97" s="72">
+        <v>86.177036999999999</v>
+      </c>
+      <c r="F97" s="70">
+        <v>40.478724</v>
+      </c>
+      <c r="G97" s="72">
+        <v>45.922877</v>
+      </c>
+      <c r="H97" s="70">
+        <v>67.029411999999994</v>
+      </c>
+      <c r="I97" s="71">
+        <v>85.958824000000007</v>
+      </c>
+      <c r="J97" s="72">
+        <v>40.888235000000002</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="63" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="66"/>
+      <c r="C98" s="63">
+        <v>77.106667000000002</v>
+      </c>
+      <c r="D98" s="64">
+        <v>77.353999999999999</v>
+      </c>
+      <c r="E98" s="65">
+        <v>76.369083000000003</v>
+      </c>
+      <c r="F98" s="63">
+        <v>25.875775999999998</v>
+      </c>
+      <c r="G98" s="65">
+        <v>32.139575999999998</v>
+      </c>
+      <c r="H98" s="63">
+        <v>55.61</v>
+      </c>
+      <c r="I98" s="64">
+        <v>85.03</v>
+      </c>
+      <c r="J98" s="65">
+        <v>24.97</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="78"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
+      <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{43BDDD9D-8B6F-460E-B68E-7AE53EEA5505}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B68F41AB-9E9F-44EB-B09F-4BBC6BE5B6AD}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{16883DBA-B837-4CC1-84A3-62C41468251F}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{1870F160-99A7-4C2C-AA7F-69D03F76B74A}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{92B17008-0B0F-4F95-9B1D-D63E4E9F6D1B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{FA5EE59B-9333-4C54-9360-27B81A38D432}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D2B9EC34-6D1B-4721-AFE9-7BB44E8BD0A1}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{9FC5032D-5A26-41C0-8BB2-7EBC96430ACC}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{5C336E2C-5710-4824-BDD6-28ABC1B9EF9C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{DF771144-A035-4210-B2D5-4C6B9BE1F15D}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{D7F6DF45-E0A2-4718-8BE1-945D03DE640F}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{10E6C077-B213-465B-BF8E-344A9B71421E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab32.xlsx
+++ b/AfDD_2025_Annex_Table_Tab32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{420E176A-8557-4C56-A00C-0AD95B3B1539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B1FF88B-F617-41F6-99F3-4EB6DA8251AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0BEF564E-EC10-49CE-9B25-76A926940DC8}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{3A3C98E7-0829-489C-A720-C48CB8546769}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -534,10 +534,10 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025), The Informality Database (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. âUnderstanding Informality.â CERP Discussion Paper 16497, Centre for Economic Policy Research, London - data updated 09/01/2024).</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+  </si>
+  <si>
+    <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025), "The Informality Database" (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. Understanding Informality. CERP Discussion Paper 16497, Centre for Economic Policy Research, London - data updated 09/01/2024).</t>
   </si>
   <si>
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F13E8B6-640F-434B-84F2-482932B12565}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196B32C6-BFBA-4D4B-9C13-89BD57576535}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1450,15 +1450,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.42578125" style="80" customWidth="1"/>
-    <col min="11" max="26" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="14.453125" style="80" customWidth="1"/>
+    <col min="11" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1471,7 +1471,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1607,13 +1607,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="15">
-        <v>80.853999999999999</v>
+        <v>89.141000000000005</v>
       </c>
       <c r="D6" s="19">
-        <v>81.061000000000007</v>
+        <v>89.9</v>
       </c>
       <c r="E6" s="20">
-        <v>80.697999999999993</v>
+        <v>88.548000000000002</v>
       </c>
       <c r="F6" s="15">
         <v>25.107353</v>
@@ -1631,7 +1631,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -1735,13 +1735,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="21">
-        <v>34.012999999999998</v>
+        <v>34.901000000000003</v>
       </c>
       <c r="D10" s="19">
-        <v>33.655999999999999</v>
+        <v>34.648000000000003</v>
       </c>
       <c r="E10" s="20">
-        <v>34.296999999999997</v>
+        <v>35.106999999999999</v>
       </c>
       <c r="F10" s="21">
         <v>22.749447</v>
@@ -1759,7 +1759,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1823,25 +1823,25 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="28">
-        <v>73.314110999999997</v>
+        <v>74.333556000000002</v>
       </c>
       <c r="D13" s="29">
-        <v>75.054221999999996</v>
+        <v>76.146556000000004</v>
       </c>
       <c r="E13" s="30">
-        <v>71.569556000000006</v>
+        <v>72.531778000000003</v>
       </c>
       <c r="F13" s="28">
-        <v>29.443968999999999</v>
+        <v>30.068998000000001</v>
       </c>
       <c r="G13" s="30">
-        <v>35.344208999999999</v>
+        <v>35.884971</v>
       </c>
       <c r="H13" s="28">
         <v>59.333333000000003</v>
@@ -1853,7 +1853,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>51</v>
@@ -2156,10 +2156,10 @@
         <v>95.486999999999995</v>
       </c>
       <c r="F23" s="28">
-        <v>35.932594000000002</v>
+        <v>36.023463999999997</v>
       </c>
       <c r="G23" s="30">
-        <v>40.222251999999997</v>
+        <v>40.278005999999998</v>
       </c>
       <c r="H23" s="28">
         <v>80.150000000000006</v>
@@ -2171,7 +2171,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>66</v>
       </c>
@@ -2403,13 +2403,13 @@
         <v>67</v>
       </c>
       <c r="C31" s="21">
-        <v>86.777000000000001</v>
+        <v>84.269000000000005</v>
       </c>
       <c r="D31" s="19">
-        <v>88.988</v>
+        <v>86.668000000000006</v>
       </c>
       <c r="E31" s="20">
-        <v>84.786000000000001</v>
+        <v>82.171000000000006</v>
       </c>
       <c r="F31" s="21">
         <v>26.566535999999999</v>
@@ -2427,7 +2427,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -2435,13 +2435,13 @@
         <v>69</v>
       </c>
       <c r="C32" s="21">
-        <v>16.552</v>
+        <v>14.222</v>
       </c>
       <c r="D32" s="19">
-        <v>8.4130000000000003</v>
+        <v>5.84</v>
       </c>
       <c r="E32" s="20">
-        <v>24.727</v>
+        <v>23.016999999999999</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>13</v>
@@ -2459,7 +2459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
@@ -2619,25 +2619,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="28">
-        <v>75.835583</v>
+        <v>75.432417000000001</v>
       </c>
       <c r="D38" s="29">
-        <v>77.278833000000006</v>
+        <v>76.871082999999999</v>
       </c>
       <c r="E38" s="30">
-        <v>75.207417000000007</v>
+        <v>74.846999999999994</v>
       </c>
       <c r="F38" s="28">
-        <v>28.829094000000001</v>
+        <v>28.829029999999999</v>
       </c>
       <c r="G38" s="30">
-        <v>37.791547000000001</v>
+        <v>37.791367000000001</v>
       </c>
       <c r="H38" s="28">
         <v>40.5</v>
@@ -2649,7 +2649,7 @@
         <v>23.166667</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>87</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>93</v>
@@ -2871,7 +2871,7 @@
         <v>40.533332999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
@@ -2911,13 +2911,13 @@
         <v>97</v>
       </c>
       <c r="C47" s="21">
-        <v>95.155000000000001</v>
+        <v>93.756</v>
       </c>
       <c r="D47" s="19">
-        <v>97.52</v>
+        <v>96.006</v>
       </c>
       <c r="E47" s="20">
-        <v>92.927000000000007</v>
+        <v>91.558999999999997</v>
       </c>
       <c r="F47" s="21">
         <v>30.887073999999998</v>
@@ -2935,7 +2935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>104</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>110</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
@@ -3351,25 +3351,25 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>124</v>
       </c>
       <c r="C61" s="28">
-        <v>89.886538000000002</v>
+        <v>89.778923000000006</v>
       </c>
       <c r="D61" s="29">
-        <v>92.172846000000007</v>
+        <v>92.056385000000006</v>
       </c>
       <c r="E61" s="30">
-        <v>87.664462</v>
+        <v>87.559230999999997</v>
       </c>
       <c r="F61" s="28">
-        <v>47.554051999999999</v>
+        <v>48.963670999999998</v>
       </c>
       <c r="G61" s="30">
-        <v>50.176034999999999</v>
+        <v>51.462882999999998</v>
       </c>
       <c r="H61" s="28">
         <v>72.633332999999993</v>
@@ -3381,25 +3381,25 @@
         <v>50.311110999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C62" s="50">
-        <v>80.247614999999996</v>
+        <v>80.322948999999994</v>
       </c>
       <c r="D62" s="51">
-        <v>81.600154000000003</v>
+        <v>81.687949000000003</v>
       </c>
       <c r="E62" s="52">
-        <v>78.922256000000004</v>
+        <v>78.998333000000002</v>
       </c>
       <c r="F62" s="50">
-        <v>34.087333000000001</v>
+        <v>35.358739</v>
       </c>
       <c r="G62" s="52">
-        <v>38.604711999999999</v>
+        <v>39.739009000000003</v>
       </c>
       <c r="H62" s="50">
         <v>62.552174000000001</v>
@@ -3411,25 +3411,25 @@
         <v>40.034782999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>126</v>
       </c>
       <c r="C63" s="50">
-        <v>37.673223</v>
+        <v>37.622138</v>
       </c>
       <c r="D63" s="51">
-        <v>37.018999999999998</v>
+        <v>36.903137999999998</v>
       </c>
       <c r="E63" s="52">
-        <v>38.043106000000002</v>
+        <v>38.029915000000003</v>
       </c>
       <c r="F63" s="50">
-        <v>16.28096</v>
+        <v>16.282703000000001</v>
       </c>
       <c r="G63" s="52">
-        <v>19.417919000000001</v>
+        <v>19.417128999999999</v>
       </c>
       <c r="H63" s="50">
         <v>42.619118</v>
@@ -3441,25 +3441,25 @@
         <v>23.355882000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="55">
-        <v>53.26088</v>
+        <v>52.890680000000003</v>
       </c>
       <c r="D64" s="56">
-        <v>50.952199999999998</v>
+        <v>50.63776</v>
       </c>
       <c r="E64" s="57">
-        <v>55.050919999999998</v>
+        <v>54.6614</v>
       </c>
       <c r="F64" s="55">
-        <v>30.032776999999999</v>
+        <v>30.042083000000002</v>
       </c>
       <c r="G64" s="57">
-        <v>36.276912000000003</v>
+        <v>36.293430999999998</v>
       </c>
       <c r="H64" s="55">
         <v>69.738461999999998</v>
@@ -3471,25 +3471,25 @@
         <v>39.553846</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>128</v>
       </c>
       <c r="C65" s="59">
-        <v>71.847700000000003</v>
+        <v>71.843050000000005</v>
       </c>
       <c r="D65" s="60">
-        <v>71.108099999999993</v>
+        <v>71.110399999999998</v>
       </c>
       <c r="E65" s="61">
-        <v>71.768450000000001</v>
+        <v>71.763999999999996</v>
       </c>
       <c r="F65" s="59">
-        <v>13.722288000000001</v>
+        <v>13.722841000000001</v>
       </c>
       <c r="G65" s="61">
-        <v>18.068622000000001</v>
+        <v>18.053773</v>
       </c>
       <c r="H65" s="59">
         <v>39.712499999999999</v>
@@ -3501,25 +3501,25 @@
         <v>18.181249999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>129</v>
       </c>
       <c r="C66" s="63">
-        <v>50.157443999999998</v>
+        <v>50.143428999999998</v>
       </c>
       <c r="D66" s="64">
-        <v>50.091669000000003</v>
+        <v>50.035525999999997</v>
       </c>
       <c r="E66" s="65">
-        <v>50.030225999999999</v>
+        <v>50.043210999999999</v>
       </c>
       <c r="F66" s="63">
-        <v>17.238206000000002</v>
+        <v>17.368922999999999</v>
       </c>
       <c r="G66" s="65">
-        <v>20.432766000000001</v>
+        <v>20.556808</v>
       </c>
       <c r="H66" s="63">
         <v>47.657142999999998</v>
@@ -3531,25 +3531,25 @@
         <v>27.571428999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>130</v>
       </c>
       <c r="C67" s="59">
-        <v>73.332234999999997</v>
+        <v>73.047646999999998</v>
       </c>
       <c r="D67" s="60">
-        <v>73.958471000000003</v>
+        <v>73.670647000000002</v>
       </c>
       <c r="E67" s="61">
-        <v>72.676058999999995</v>
+        <v>72.421646999999993</v>
       </c>
       <c r="F67" s="59">
-        <v>29.988773999999999</v>
+        <v>30.273788</v>
       </c>
       <c r="G67" s="61">
-        <v>34.177461000000001</v>
+        <v>34.448528000000003</v>
       </c>
       <c r="H67" s="59">
         <v>54.287500000000001</v>
@@ -3561,25 +3561,25 @@
         <v>32.924999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>131</v>
       </c>
       <c r="C68" s="59">
-        <v>85.567420999999996</v>
+        <v>85.493789000000007</v>
       </c>
       <c r="D68" s="60">
-        <v>87.286421000000004</v>
+        <v>87.206737000000004</v>
       </c>
       <c r="E68" s="61">
-        <v>83.922788999999995</v>
+        <v>83.850789000000006</v>
       </c>
       <c r="F68" s="59">
-        <v>37.379852</v>
+        <v>39.042414000000001</v>
       </c>
       <c r="G68" s="61">
-        <v>40.595790000000001</v>
+        <v>42.181919000000001</v>
       </c>
       <c r="H68" s="59">
         <v>67.683333000000005</v>
@@ -3591,25 +3591,25 @@
         <v>46.858333000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>132</v>
       </c>
       <c r="C69" s="59">
-        <v>91.762600000000006</v>
+        <v>91.260999999999996</v>
       </c>
       <c r="D69" s="60">
-        <v>94.095600000000005</v>
+        <v>93.631600000000006</v>
       </c>
       <c r="E69" s="61">
-        <v>89.579599999999999</v>
+        <v>89.056600000000003</v>
       </c>
       <c r="F69" s="59">
-        <v>33.652442999999998</v>
+        <v>33.713771999999999</v>
       </c>
       <c r="G69" s="61">
-        <v>40.512689999999999</v>
+        <v>40.540258999999999</v>
       </c>
       <c r="H69" s="59">
         <v>49.2</v>
@@ -3621,25 +3621,25 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>133</v>
       </c>
       <c r="C70" s="59">
-        <v>93.162000000000006</v>
+        <v>92.534999999999997</v>
       </c>
       <c r="D70" s="60">
-        <v>95.307749999999999</v>
+        <v>94.72775</v>
       </c>
       <c r="E70" s="61">
-        <v>91.145499999999998</v>
+        <v>90.491749999999996</v>
       </c>
       <c r="F70" s="59">
-        <v>37.286293999999998</v>
+        <v>37.326746</v>
       </c>
       <c r="G70" s="61">
-        <v>42.625410000000002</v>
+        <v>42.638319000000003</v>
       </c>
       <c r="H70" s="59">
         <v>63.3</v>
@@ -3651,25 +3651,25 @@
         <v>32.633333</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>134</v>
       </c>
       <c r="C71" s="59">
-        <v>89.886538000000002</v>
+        <v>89.778923000000006</v>
       </c>
       <c r="D71" s="60">
-        <v>92.172846000000007</v>
+        <v>92.056385000000006</v>
       </c>
       <c r="E71" s="61">
-        <v>87.664462</v>
+        <v>87.559230999999997</v>
       </c>
       <c r="F71" s="59">
-        <v>47.554051999999999</v>
+        <v>48.963670999999998</v>
       </c>
       <c r="G71" s="61">
-        <v>50.176034999999999</v>
+        <v>51.462882999999998</v>
       </c>
       <c r="H71" s="59">
         <v>72.633332999999993</v>
@@ -3681,7 +3681,7 @@
         <v>50.311110999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>135</v>
@@ -3696,10 +3696,10 @@
         <v>80.259500000000003</v>
       </c>
       <c r="F72" s="59">
-        <v>26.200323999999998</v>
+        <v>26.200295000000001</v>
       </c>
       <c r="G72" s="61">
-        <v>33.886797999999999</v>
+        <v>33.886662000000001</v>
       </c>
       <c r="H72" s="59">
         <v>45.95</v>
@@ -3711,25 +3711,25 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>136</v>
       </c>
       <c r="C73" s="59">
-        <v>72.367999999999995</v>
+        <v>72.824332999999996</v>
       </c>
       <c r="D73" s="60">
-        <v>72.930999999999997</v>
+        <v>73.414867000000001</v>
       </c>
       <c r="E73" s="61">
-        <v>71.734267000000003</v>
+        <v>72.197599999999994</v>
       </c>
       <c r="F73" s="59">
-        <v>31.571166999999999</v>
+        <v>32.056120999999997</v>
       </c>
       <c r="G73" s="61">
-        <v>37.851599</v>
+        <v>38.252636000000003</v>
       </c>
       <c r="H73" s="59">
         <v>59.333333000000003</v>
@@ -3741,7 +3741,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>137</v>
@@ -3771,7 +3771,7 @@
         <v>50.25</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>138</v>
@@ -3786,10 +3786,10 @@
         <v>84.35275</v>
       </c>
       <c r="F75" s="66">
-        <v>38.287762999999998</v>
+        <v>38.28783</v>
       </c>
       <c r="G75" s="68">
-        <v>45.066426</v>
+        <v>45.066482999999998</v>
       </c>
       <c r="H75" s="66">
         <v>58</v>
@@ -3801,25 +3801,25 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C76" s="70">
-        <v>71.600429000000005</v>
+        <v>71.643570999999994</v>
       </c>
       <c r="D76" s="71">
-        <v>71.741714000000002</v>
+        <v>71.772285999999994</v>
       </c>
       <c r="E76" s="72">
-        <v>71.600999999999999</v>
+        <v>71.655000000000001</v>
       </c>
       <c r="F76" s="70">
-        <v>22.493319</v>
+        <v>22.494389000000002</v>
       </c>
       <c r="G76" s="72">
-        <v>27.151406000000001</v>
+        <v>27.092184</v>
       </c>
       <c r="H76" s="70">
         <v>44.9375</v>
@@ -3831,25 +3831,25 @@
         <v>15.9625</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>140</v>
       </c>
       <c r="C77" s="59">
-        <v>55.203231000000002</v>
+        <v>54.801614999999998</v>
       </c>
       <c r="D77" s="60">
-        <v>53.706308</v>
+        <v>53.507154</v>
       </c>
       <c r="E77" s="61">
-        <v>56.174923</v>
+        <v>55.623384999999999</v>
       </c>
       <c r="F77" s="59">
-        <v>30.642104</v>
+        <v>30.654612</v>
       </c>
       <c r="G77" s="61">
-        <v>37.641745999999998</v>
+        <v>37.664408999999999</v>
       </c>
       <c r="H77" s="59">
         <v>69.412499999999994</v>
@@ -3861,25 +3861,25 @@
         <v>37.362499999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>141</v>
       </c>
       <c r="C78" s="59">
-        <v>2.5961850000000002</v>
+        <v>2.535593</v>
       </c>
       <c r="D78" s="60">
-        <v>2.9752589999999999</v>
+        <v>2.8571110000000002</v>
       </c>
       <c r="E78" s="61">
-        <v>2.2784439999999999</v>
+        <v>2.2556669999999999</v>
       </c>
       <c r="F78" s="59">
-        <v>18.267147999999999</v>
+        <v>18.267092000000002</v>
       </c>
       <c r="G78" s="61">
-        <v>20.129069000000001</v>
+        <v>20.128951000000001</v>
       </c>
       <c r="H78" s="59">
         <v>28.921738999999999</v>
@@ -3891,25 +3891,25 @@
         <v>16.195651999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="63">
-        <v>9.5150000000000006</v>
+        <v>9.4875939999999996</v>
       </c>
       <c r="D79" s="64">
-        <v>10.153625</v>
+        <v>10.129875</v>
       </c>
       <c r="E79" s="65">
-        <v>9.0720620000000007</v>
+        <v>9.0340939999999996</v>
       </c>
       <c r="F79" s="63">
-        <v>14.12716</v>
+        <v>14.13205</v>
       </c>
       <c r="G79" s="65">
-        <v>15.772551999999999</v>
+        <v>15.780661</v>
       </c>
       <c r="H79" s="63">
         <v>31.12</v>
@@ -3921,7 +3921,7 @@
         <v>16.495000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>143</v>
@@ -3936,10 +3936,10 @@
         <v>83.989000000000004</v>
       </c>
       <c r="F80" s="70">
-        <v>32.381633000000001</v>
+        <v>32.380161000000001</v>
       </c>
       <c r="G80" s="72">
-        <v>37.674295000000001</v>
+        <v>37.672086999999998</v>
       </c>
       <c r="H80" s="70">
         <v>80</v>
@@ -3951,25 +3951,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>144</v>
       </c>
       <c r="C81" s="59">
-        <v>51.802750000000003</v>
+        <v>52.131875000000001</v>
       </c>
       <c r="D81" s="60">
-        <v>47.466000000000001</v>
+        <v>47.878749999999997</v>
       </c>
       <c r="E81" s="61">
-        <v>53.335000000000001</v>
+        <v>53.596874999999997</v>
       </c>
       <c r="F81" s="59">
-        <v>29.102609999999999</v>
+        <v>28.886331999999999</v>
       </c>
       <c r="G81" s="61">
-        <v>33.469805000000001</v>
+        <v>33.235700999999999</v>
       </c>
       <c r="H81" s="59">
         <v>43.544443999999999</v>
@@ -3981,25 +3981,25 @@
         <v>20.555555999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>145</v>
       </c>
       <c r="C82" s="59">
-        <v>79.639171000000005</v>
+        <v>79.723113999999995</v>
       </c>
       <c r="D82" s="60">
-        <v>80.925314</v>
+        <v>81.023143000000005</v>
       </c>
       <c r="E82" s="61">
-        <v>78.343199999999996</v>
+        <v>78.427970999999999</v>
       </c>
       <c r="F82" s="59">
-        <v>34.348452999999999</v>
+        <v>35.782933999999997</v>
       </c>
       <c r="G82" s="61">
-        <v>38.763387999999999</v>
+        <v>40.066215999999997</v>
       </c>
       <c r="H82" s="59">
         <v>61.759090999999998</v>
@@ -4011,25 +4011,25 @@
         <v>40.445455000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>146</v>
       </c>
       <c r="C83" s="63">
-        <v>36.358848999999999</v>
+        <v>36.272395000000003</v>
       </c>
       <c r="D83" s="64">
-        <v>36.047186000000004</v>
+        <v>35.882151</v>
       </c>
       <c r="E83" s="65">
-        <v>36.620604999999998</v>
+        <v>36.581826</v>
       </c>
       <c r="F83" s="63">
-        <v>15.219939</v>
+        <v>15.222576999999999</v>
       </c>
       <c r="G83" s="65">
-        <v>18.251570000000001</v>
+        <v>18.251353000000002</v>
       </c>
       <c r="H83" s="63">
         <v>42.477966000000002</v>
@@ -4041,25 +4041,25 @@
         <v>23.783051</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>147</v>
       </c>
       <c r="C84" s="70">
-        <v>92.962249999999997</v>
+        <v>92.718062000000003</v>
       </c>
       <c r="D84" s="71">
-        <v>95.056624999999997</v>
+        <v>94.816999999999993</v>
       </c>
       <c r="E84" s="72">
-        <v>90.911438000000004</v>
+        <v>90.662499999999994</v>
       </c>
       <c r="F84" s="70">
-        <v>33.14676</v>
+        <v>33.204284000000001</v>
       </c>
       <c r="G84" s="72">
-        <v>40.803880999999997</v>
+        <v>40.832019000000003</v>
       </c>
       <c r="H84" s="70">
         <v>67.022221999999999</v>
@@ -4071,7 +4071,7 @@
         <v>40.688889000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>148</v>
@@ -4101,25 +4101,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>149</v>
       </c>
       <c r="C86" s="59">
-        <v>78.389411999999993</v>
+        <v>78.876881999999995</v>
       </c>
       <c r="D86" s="60">
-        <v>80.402587999999994</v>
+        <v>80.922528999999997</v>
       </c>
       <c r="E86" s="61">
-        <v>76.492118000000005</v>
+        <v>76.953881999999993</v>
       </c>
       <c r="F86" s="59">
-        <v>37.617708999999998</v>
+        <v>39.186847</v>
       </c>
       <c r="G86" s="61">
-        <v>41.027577000000001</v>
+        <v>42.468193999999997</v>
       </c>
       <c r="H86" s="59">
         <v>66.275000000000006</v>
@@ -4131,25 +4131,25 @@
         <v>44.283332999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>150</v>
       </c>
       <c r="C87" s="59">
-        <v>74.998943999999995</v>
+        <v>74.943888999999999</v>
       </c>
       <c r="D87" s="60">
-        <v>74.722611000000001</v>
+        <v>74.6905</v>
       </c>
       <c r="E87" s="61">
-        <v>74.925111000000001</v>
+        <v>74.855277999999998</v>
       </c>
       <c r="F87" s="59">
-        <v>19.678657000000001</v>
+        <v>19.675096</v>
       </c>
       <c r="G87" s="61">
-        <v>25.959368999999999</v>
+        <v>25.924582999999998</v>
       </c>
       <c r="H87" s="59">
         <v>49.382353000000002</v>
@@ -4161,25 +4161,25 @@
         <v>24.317647000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="59">
-        <v>51.969250000000002</v>
+        <v>52.191249999999997</v>
       </c>
       <c r="D88" s="60">
-        <v>49.699249999999999</v>
+        <v>49.947249999999997</v>
       </c>
       <c r="E88" s="61">
-        <v>53.677500000000002</v>
+        <v>53.88</v>
       </c>
       <c r="F88" s="59">
-        <v>25.241453</v>
+        <v>25.241447000000001</v>
       </c>
       <c r="G88" s="61">
-        <v>30.948878000000001</v>
+        <v>30.948868999999998</v>
       </c>
       <c r="H88" s="59">
         <v>17.100000000000001</v>
@@ -4191,25 +4191,25 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>152</v>
       </c>
       <c r="C89" s="59">
-        <v>49.759580999999997</v>
+        <v>49.622613000000001</v>
       </c>
       <c r="D89" s="60">
-        <v>47.910806000000001</v>
+        <v>47.557386999999999</v>
       </c>
       <c r="E89" s="61">
-        <v>50.779257999999999</v>
+        <v>50.778516000000003</v>
       </c>
       <c r="F89" s="59">
-        <v>16.666141</v>
+        <v>16.677085000000002</v>
       </c>
       <c r="G89" s="61">
-        <v>20.844567000000001</v>
+        <v>20.855774</v>
       </c>
       <c r="H89" s="59">
         <v>49.896154000000003</v>
@@ -4221,25 +4221,25 @@
         <v>29.076923000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>153</v>
       </c>
       <c r="C90" s="63">
-        <v>11.837432</v>
+        <v>11.794364</v>
       </c>
       <c r="D90" s="64">
-        <v>11.512226999999999</v>
+        <v>11.468363999999999</v>
       </c>
       <c r="E90" s="65">
-        <v>12.139818</v>
+        <v>12.101864000000001</v>
       </c>
       <c r="F90" s="63">
-        <v>15.196937</v>
+        <v>15.195558999999999</v>
       </c>
       <c r="G90" s="65">
-        <v>16.885261</v>
+        <v>16.887058</v>
       </c>
       <c r="H90" s="63">
         <v>30.452000000000002</v>
@@ -4251,25 +4251,25 @@
         <v>16.751999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>154</v>
       </c>
       <c r="C91" s="70">
-        <v>90.122808000000006</v>
+        <v>90.291269</v>
       </c>
       <c r="D91" s="71">
-        <v>92.783000000000001</v>
+        <v>92.975499999999997</v>
       </c>
       <c r="E91" s="72">
-        <v>87.983192000000003</v>
+        <v>88.131923</v>
       </c>
       <c r="F91" s="70">
-        <v>33.765115000000002</v>
+        <v>33.789682999999997</v>
       </c>
       <c r="G91" s="72">
-        <v>41.992274999999999</v>
+        <v>41.999554000000003</v>
       </c>
       <c r="H91" s="70">
         <v>64.45</v>
@@ -4281,7 +4281,7 @@
         <v>39.871428999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>155</v>
@@ -4296,10 +4296,10 @@
         <v>73.340221999999997</v>
       </c>
       <c r="F92" s="59">
-        <v>25.760428000000001</v>
+        <v>25.808620999999999</v>
       </c>
       <c r="G92" s="61">
-        <v>37.521261000000003</v>
+        <v>37.366014999999997</v>
       </c>
       <c r="H92" s="59">
         <v>53.14</v>
@@ -4311,25 +4311,25 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>156</v>
       </c>
       <c r="C93" s="59">
-        <v>59.572400000000002</v>
+        <v>59.106400000000001</v>
       </c>
       <c r="D93" s="60">
-        <v>57.863</v>
+        <v>57.348399999999998</v>
       </c>
       <c r="E93" s="61">
-        <v>61.061</v>
+        <v>60.719000000000001</v>
       </c>
       <c r="F93" s="59">
-        <v>24.487532999999999</v>
+        <v>24.487261</v>
       </c>
       <c r="G93" s="61">
-        <v>26.697195000000001</v>
+        <v>26.696562</v>
       </c>
       <c r="H93" s="59" t="s">
         <v>13</v>
@@ -4341,25 +4341,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>157</v>
       </c>
       <c r="C94" s="59">
-        <v>47.868842000000001</v>
+        <v>47.785842000000002</v>
       </c>
       <c r="D94" s="60">
-        <v>44.533895000000001</v>
+        <v>44.054420999999998</v>
       </c>
       <c r="E94" s="61">
-        <v>50.435789</v>
+        <v>50.597842</v>
       </c>
       <c r="F94" s="59">
-        <v>16.553971000000001</v>
+        <v>16.587724000000001</v>
       </c>
       <c r="G94" s="61">
-        <v>20.992425000000001</v>
+        <v>21.026295000000001</v>
       </c>
       <c r="H94" s="59">
         <v>60.9</v>
@@ -4371,25 +4371,25 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>158</v>
       </c>
       <c r="C95" s="59">
-        <v>86.281082999999995</v>
+        <v>86.646083000000004</v>
       </c>
       <c r="D95" s="60">
-        <v>88.039249999999996</v>
+        <v>88.456333000000001</v>
       </c>
       <c r="E95" s="61">
-        <v>84.751999999999995</v>
+        <v>85.074250000000006</v>
       </c>
       <c r="F95" s="59">
-        <v>31.532388000000001</v>
+        <v>32.446778000000002</v>
       </c>
       <c r="G95" s="61">
-        <v>39.388171999999997</v>
+        <v>40.105879000000002</v>
       </c>
       <c r="H95" s="59">
         <v>64.244444000000001</v>
@@ -4401,19 +4401,19 @@
         <v>39.355556</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>159</v>
       </c>
       <c r="C96" s="63">
-        <v>62.230817999999999</v>
+        <v>62.347273000000001</v>
       </c>
       <c r="D96" s="64">
-        <v>62.066727</v>
+        <v>62.116</v>
       </c>
       <c r="E96" s="65">
-        <v>62.448363999999998</v>
+        <v>62.626908999999998</v>
       </c>
       <c r="F96" s="63">
         <v>35.564993000000001</v>
@@ -4431,25 +4431,25 @@
         <v>24.630769000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>160</v>
       </c>
       <c r="C97" s="70">
-        <v>88.551000000000002</v>
+        <v>88.406295999999998</v>
       </c>
       <c r="D97" s="71">
-        <v>91.447592999999998</v>
+        <v>91.305593000000002</v>
       </c>
       <c r="E97" s="72">
-        <v>86.177036999999999</v>
+        <v>86.029518999999993</v>
       </c>
       <c r="F97" s="70">
-        <v>40.478724</v>
+        <v>42.209394000000003</v>
       </c>
       <c r="G97" s="72">
-        <v>45.922877</v>
+        <v>47.281680000000001</v>
       </c>
       <c r="H97" s="70">
         <v>67.029411999999994</v>
@@ -4461,7 +4461,7 @@
         <v>40.888235000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>161</v>
@@ -4476,10 +4476,10 @@
         <v>76.369083000000003</v>
       </c>
       <c r="F98" s="63">
-        <v>25.875775999999998</v>
+        <v>25.709208</v>
       </c>
       <c r="G98" s="65">
-        <v>32.139575999999998</v>
+        <v>31.790925000000001</v>
       </c>
       <c r="H98" s="63">
         <v>55.61</v>
@@ -4491,7 +4491,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -4503,7 +4503,7 @@
       <c r="I99" s="67"/>
       <c r="J99" s="67"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="I100" s="76"/>
       <c r="J100" s="76"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="I101" s="76"/>
       <c r="J101" s="76"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="I102" s="76"/>
       <c r="J102" s="76"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="I103" s="76"/>
       <c r="J103" s="76"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="I104" s="76"/>
       <c r="J104" s="76"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -4578,7 +4578,7 @@
       <c r="I105" s="76"/>
       <c r="J105" s="76"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -4589,7 +4589,7 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="I107" s="76"/>
       <c r="J107" s="76"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -4613,7 +4613,7 @@
       <c r="I108" s="76"/>
       <c r="J108" s="76"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>169</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="I109" s="76"/>
       <c r="J109" s="76"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="I110" s="76"/>
       <c r="J110" s="76"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="I111" s="76"/>
       <c r="J111" s="76"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="I112" s="76"/>
       <c r="J112" s="76"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -4678,12 +4678,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D2B9EC34-6D1B-4721-AFE9-7BB44E8BD0A1}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{9FC5032D-5A26-41C0-8BB2-7EBC96430ACC}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{5C336E2C-5710-4824-BDD6-28ABC1B9EF9C}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{DF771144-A035-4210-B2D5-4C6B9BE1F15D}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{D7F6DF45-E0A2-4718-8BE1-945D03DE640F}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{10E6C077-B213-465B-BF8E-344A9B71421E}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{94E0CAE4-6C3D-4A54-9D57-CD5E9E4D1460}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{23C49A95-787A-46E7-BEB5-4B83A801C678}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{2FD68171-2A5B-4D89-B5C2-BBC19499360E}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{3CAD7F63-4C5B-49B2-95CC-AE21FF68264C}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{A6093491-FC97-4670-805F-F55D72BAD0E7}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9133F15B-DA73-451A-A294-24652E65FE3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab32.xlsx
+++ b/AfDD_2025_Annex_Table_Tab32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B1FF88B-F617-41F6-99F3-4EB6DA8251AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C57FC3-CEA8-4792-9207-E0A59999C56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{3A3C98E7-0829-489C-A720-C48CB8546769}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{378A3E5B-62EF-4864-8127-7412A739A1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab32" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025), "The Informality Database" (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. Understanding Informality. CERP Discussion Paper 16497, Centre for Economic Policy Research, London - data updated 09/01/2024).</t>
@@ -543,16 +543,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,16 +694,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -930,7 +920,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1158,7 +1148,6 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1442,11 +1431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196B32C6-BFBA-4D4B-9C13-89BD57576535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBAB55D-C9F5-4309-BCA4-0E722E4E1944}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1454,7 +1443,7 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.453125" style="80" customWidth="1"/>
+    <col min="3" max="10" width="14.453125" style="79" customWidth="1"/>
     <col min="11" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4589,10 +4578,8 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>167</v>
-      </c>
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -4603,7 +4590,9 @@
       <c r="J107" s="76"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="80" t="s">
+        <v>167</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -4614,9 +4603,7 @@
       <c r="J108" s="76"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>169</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -4627,8 +4614,8 @@
       <c r="J109" s="76"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>170</v>
+      <c r="B110" s="80" t="s">
+        <v>168</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -4640,8 +4627,8 @@
       <c r="J110" s="76"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>171</v>
+      <c r="B111" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -4653,8 +4640,8 @@
       <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>168</v>
+      <c r="B112" s="80" t="s">
+        <v>171</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -4666,7 +4653,9 @@
       <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="80" t="s">
+        <v>170</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -4676,17 +4665,27 @@
       <c r="I113" s="76"/>
       <c r="J113" s="76"/>
     </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{94E0CAE4-6C3D-4A54-9D57-CD5E9E4D1460}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{23C49A95-787A-46E7-BEB5-4B83A801C678}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{2FD68171-2A5B-4D89-B5C2-BBC19499360E}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{3CAD7F63-4C5B-49B2-95CC-AE21FF68264C}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{A6093491-FC97-4670-805F-F55D72BAD0E7}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9133F15B-DA73-451A-A294-24652E65FE3F}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{D87C6350-FE0E-425D-A1E7-2E661BBCFFD9}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{C6856498-78E7-4DF2-8D2E-B9DFB7F7AA16}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{1CF61ECF-70E6-45C6-BA34-BEDE1DA29CE5}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{4E4C2443-D33A-47DB-B961-3C58E208086D}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8731E89C-93E2-4740-9DF8-A8253240FE25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
